--- a/docs/Buggrapport.xlsx
+++ b/docs/Buggrapport.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Genomslag">Sheet1!$A$52:$A$61</definedName>
-    <definedName name="Målgrupp">Sheet1!$A$48:$A$50</definedName>
+    <definedName name="Genomslag">Sheet1!$B$52:$B$61</definedName>
+    <definedName name="Målgrupp">Sheet1!$B$48:$B$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -83,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -184,11 +184,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,8 +259,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,7 +336,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$48</c:f>
+              <c:f>Sheet1!$E$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -288,7 +345,130 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.4444444444444446E-2"/>
+                  <c:y val="-2.7777777777777776E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7777777777777807E-2"/>
+                  <c:y val="-3.2407407407407406E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8333333333333334E-2"/>
+                  <c:y val="-4.2437781360066642E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator> </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:pattFill prst="pct75">
                 <a:fgClr>
@@ -334,11 +514,11 @@
                 <a:endParaRPr lang="sv-SE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="1"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:separator> </c:separator>
@@ -368,27 +548,44 @@
                   </a:ln>
                 </c15:spPr>
                 <c15:layout/>
-                <c15:showDataLabelsRange val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$49:$C$51</c:f>
+              <c:f>Sheet1!$D$49:$D$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>student</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lärare</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>besökare</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$49:$D$51</c:f>
+              <c:f>Sheet1!$E$49:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>Sheet1!$D$49:$D$51</c15:f>
-              </c15:datalabelsRange>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1144,20 +1341,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1438,335 +1635,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="B1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:D51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="F3">
-        <f>SUM(B3*E3)</f>
+      <c r="G3">
+        <f>SUM(C3*F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="12">
         <v>2</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F12" si="0">SUM(B4*E4)</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="0">SUM(C4*F4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="12">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="12">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="12">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="12">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="12">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10">
+      <c r="F10" s="12">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="12">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5">
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="10">
+      <c r="F12" s="12">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6">
-        <f>SUM(B3:B12)</f>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="6">
+        <f>SUM(C3:C12)</f>
         <v>50</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9">
-        <f>SUM(E3:E12)</f>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9">
+        <f>SUM(F3:F12)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-    </row>
-    <row r="48" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="48" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="4">
-        <f>SUMIF(D3:D12,"student",F3:F12)</f>
+      <c r="E49" s="4">
+        <f>SUMIF(E3:E12,"student",G3:G12)</f>
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="4">
-        <f>SUMIF(D3:D12,"lärare",F3:F12)</f>
+      <c r="E50" s="4">
+        <f>SUMIF(E3:E12,"lärare",G3:G12)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
+    <row r="51" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="4">
-        <f>SUMIF(D3:D12,"besökare",F3:F12)</f>
+      <c r="E51" s="4">
+        <f>SUMIF(E3:E12,"besökare",G3:G12)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="66" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="65" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12">
       <formula1>Målgrupp</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F12">
       <formula1>Genomslag</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/Buggrapport.xlsx
+++ b/docs/Buggrapport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patric\Desktop\KYH website\kyh-website\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderdeste/Projects/kyh-website/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,12 @@
     <definedName name="Genomslag">Sheet1!$B$52:$B$61</definedName>
     <definedName name="Målgrupp">Sheet1!$B$48:$B$50</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>TF</t>
   </si>
@@ -52,6 +55,12 @@
   </si>
   <si>
     <t>besökare</t>
+  </si>
+  <si>
+    <t>String to color</t>
+  </si>
+  <si>
+    <t>Check if string and correct amount of characters</t>
   </si>
 </sst>
 </file>
@@ -93,29 +102,29 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -123,117 +132,117 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -284,7 +293,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -322,7 +331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -407,8 +416,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.4444444444444446E-2"/>
-                  <c:y val="-2.7777777777777776E-2"/>
+                  <c:x val="0.0444444444444445"/>
+                  <c:y val="-0.0277777777777778"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -429,8 +438,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7777777777777807E-2"/>
-                  <c:y val="-3.2407407407407406E-2"/>
+                  <c:x val="-0.0777777777777778"/>
+                  <c:y val="-0.0324074074074074"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -451,8 +460,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8333333333333334E-2"/>
-                  <c:y val="-4.2437781360066642E-17"/>
+                  <c:x val="-0.0583333333333333"/>
+                  <c:y val="-4.24377813600667E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -511,7 +520,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="sv-SE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -547,7 +556,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -575,13 +583,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>103.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,7 +647,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -685,7 +693,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1637,28 +1645,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1675,24 +1683,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>SUM(C3*F3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="4">
         <v>2</v>
@@ -1709,7 +1721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="4">
         <v>3</v>
@@ -1726,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="4">
         <v>4</v>
@@ -1743,7 +1755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="4">
         <v>5</v>
@@ -1760,7 +1772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="4">
         <v>6</v>
@@ -1777,7 +1789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="4">
         <v>7</v>
@@ -1794,7 +1806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="4">
         <v>8</v>
@@ -1811,7 +1823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>5</v>
@@ -1828,7 +1840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="5">
         <v>9</v>
@@ -1845,23 +1857,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="6">
         <f>SUM(C3:C12)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
       <c r="F13" s="9">
         <f>SUM(F3:F12)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C14" s="10"/>
     </row>
-    <row r="48" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1870,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>5</v>
       </c>
@@ -1879,10 +1891,10 @@
       </c>
       <c r="E49" s="4">
         <f>SUMIF(E3:E12,"student",G3:G12)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -1891,10 +1903,10 @@
       </c>
       <c r="E50" s="4">
         <f>SUMIF(E3:E12,"lärare",G3:G12)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D51" s="4" t="s">
         <v>7</v>
       </c>
@@ -1903,62 +1915,62 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="65" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="65" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12">
       <formula1>Målgrupp</formula1>
     </dataValidation>
